--- a/biology/Médecine/Examen_clinique_pulmonaire_ou_respiratoire/Examen_clinique_pulmonaire_ou_respiratoire.xlsx
+++ b/biology/Médecine/Examen_clinique_pulmonaire_ou_respiratoire/Examen_clinique_pulmonaire_ou_respiratoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen pulmonaire ou respiratoire est en médecine une partie de l'examen clinique qui permet d'avoir une idée des problèmes pulmonaires que peut avoir le patient.
 On recherche entre autres des signes d'insuffisance respiratoire chronique, insuffisance respiratoire aiguë, d'infection pulmonaire, d'épanchement dans la plèvre, etc.
@@ -512,7 +524,9 @@
           <t>Signes fonctionnels ou symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les symptômes pouvant être obtenus pendant l'anamnèse ou l'interrogatoire, on recherchera:
 Dyspnée
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inspection
-On regardera si le patient a:
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On regardera si le patient a:
 Cyanose
 Polypnée
 Apnée
@@ -559,14 +578,118 @@
 Hippocratisme digital
 Une cage thoracique déformée
 On recherchera sa fréquence respiratoire
-Palpation
-on va rechercher de manière symétrique:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Signes physiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Palpation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>on va rechercher de manière symétrique:
 Les vibrations vocales
-Point douloureux exquis
-Percussion
-On recherche de manière symétrique une matité ou un tympanisme.
-Auscultation pulmonaire
-Auscultation pulmonaire anormale (râles sibilants, râles crépitants, ronchus,  abolition du murmure vésiculaire)</t>
+Point douloureux exquis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signes physiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Percussion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On recherche de manière symétrique une matité ou un tympanisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_pulmonaire_ou_respiratoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Signes physiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auscultation pulmonaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auscultation pulmonaire anormale (râles sibilants, râles crépitants, ronchus,  abolition du murmure vésiculaire)</t>
         </is>
       </c>
     </row>
